--- a/data/income_statement/3digits/total/920_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/920_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>920-Gambling and betting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>920-Gambling and betting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>324126.29169</v>
+        <v>324126.2916899999</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>326770.05713</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>456327.36012</v>
+        <v>462562.5365</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>624354.08294</v>
+        <v>633834.36357</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>930175.9574600001</v>
+        <v>941825.09926</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1367375.68232</v>
+        <v>1382858.0586</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1972570.14417</v>
+        <v>2004392.72382</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>691960.6161399999</v>
+        <v>691959.8652</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>854155.1924300001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1068362.09417</v>
+        <v>1069781.67996</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1234686.25439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1240017.07351</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1852049.247</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>251089.48839</v>
@@ -995,37 +906,42 @@
         <v>318278.46606</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>442252.07005</v>
+        <v>448487.2464299999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>609513.12364</v>
+        <v>618993.4042699999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>916514.1246100001</v>
+        <v>928163.26641</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1349326.89105</v>
+        <v>1364808.7355</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1957993.2526</v>
+        <v>1989661.71017</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>680180.43775</v>
+        <v>680179.6868100001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>840604.8275899999</v>
+        <v>840604.82759</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1055156.98197</v>
+        <v>1056494.96836</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1213157.92454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1217529.08459</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1799017.073</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0</v>
@@ -1060,17 +976,22 @@
       <c r="M7" s="48" t="n">
         <v>12285.95579</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>11571.51</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>73036.8033</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>6982.466149999999</v>
+        <v>6982.46615</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>7805.90966</v>
@@ -1079,13 +1000,13 @@
         <v>7224.83094</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>5714.20893</v>
+        <v>5714.208930000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7279.91183</v>
+        <v>7280.44366</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4607.6186</v>
+        <v>4761.74068</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>6607.011810000001</v>
@@ -1094,16 +1015,21 @@
         <v>6654.68783</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>6883.188630000001</v>
+        <v>6964.788030000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9242.37406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10202.03313</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>41460.664</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>24.10714</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>393.26302</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>3986.968</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>19.21006</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>308.1145</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>2411.594</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4.89708</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>85.14852</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1575.374</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>324102.1845499999</v>
+        <v>324102.18455</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>326195.1326</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>456322.85192</v>
+        <v>462558.0283</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>624166.18914</v>
+        <v>633646.46977</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>930049.3836500001</v>
+        <v>941698.5254500001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1364568.79691</v>
+        <v>1380051.17319</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1972564.26742</v>
+        <v>2004386.84707</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>691639.76902</v>
+        <v>691639.01808</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>854024.3390599998</v>
+        <v>854024.3390599999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1068108.51549</v>
+        <v>1069528.10128</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1234292.99137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1239623.81049</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1848062.279</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>239898.13723</v>
@@ -1307,37 +1258,42 @@
         <v>239198.45575</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>318719.71692</v>
+        <v>326790.75913</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>459497.6864000001</v>
+        <v>466133.4935599999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>707760.0158499999</v>
+        <v>716955.0004700001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1075584.03688</v>
+        <v>1085030.95616</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1615754.09397</v>
+        <v>1627615.8057</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>231212.7383</v>
+        <v>231213.4998</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>270678.16694</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>312050.27858</v>
+        <v>312792.89641</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>393922.16834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>397766.52956</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>727880.323</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>53.36807</v>
@@ -1370,13 +1326,18 @@
         <v>6951.69256</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14049.25132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14051.01062</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>5570.404</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>38339.61209</v>
@@ -1385,19 +1346,19 @@
         <v>45644.21055</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>48167.89553</v>
+        <v>48281.29553</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>53548.9528</v>
+        <v>53814.1028</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>619003.94251</v>
+        <v>619773.15935</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>67523.15221</v>
+        <v>67818.78721000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>74468.98312999999</v>
+        <v>76063.0475</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>107546.62277</v>
@@ -1406,16 +1367,21 @@
         <v>145452.90566</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>171496.56445</v>
+        <v>171809.64088</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>228460.20676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>231496.99851</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>323303.629</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>200926.62721</v>
@@ -1424,37 +1390,42 @@
         <v>192332.91625</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>270487.8043</v>
+        <v>278445.44651</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>402839.74101</v>
+        <v>409210.3981699999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>83497.31025999998</v>
+        <v>91923.07803999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1005815.2861</v>
+        <v>1014966.57038</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1539391.6485</v>
+        <v>1549659.29586</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>119900.52969</v>
+        <v>119901.29119</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>121557.05729</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>133529.69687</v>
+        <v>133959.23827</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>151333.24398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>151402.47015</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>398941.934</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>578.52986</v>
@@ -1487,52 +1458,62 @@
         <v>72.32469999999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>79.46628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>816.05028</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>64.35599999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>84204.04732000001</v>
+        <v>84204.04732</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>86996.67684999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>137603.135</v>
+        <v>135767.26917</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>164668.50274</v>
+        <v>167512.97621</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>222289.3678</v>
+        <v>224743.52498</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>288984.7600299999</v>
+        <v>295020.2170300001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>356810.1734500001</v>
+        <v>376771.04137</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>460427.03072</v>
+        <v>460425.51828</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>583346.17212</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>756058.2369100001</v>
+        <v>756735.20487</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>840370.8230300001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>841857.2809299999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1120181.956</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>50477.4584</v>
@@ -1541,37 +1522,42 @@
         <v>77767.08487999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>83325.38204999999</v>
+        <v>87658.16532</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>89014.25064</v>
+        <v>94918.00403</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>109439.29906</v>
+        <v>116429.81773</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>128516.66235</v>
+        <v>136725.97951</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>179640.93596</v>
+        <v>197636.01182</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>206401.64558</v>
+        <v>206404.39868</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>259052.16645</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>340451.05357</v>
+        <v>340841.97595</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>464499.69549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>465805.96334</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>672877.848</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>7.9</v>
@@ -1606,32 +1592,37 @@
       <c r="M21" s="48" t="n">
         <v>5621.32311</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>29091.57639</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>46565.97552</v>
+        <v>46565.97551999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>34944.37579</v>
+        <v>38382.20275</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>52356.79048</v>
+        <v>57196.01841</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>66086.07326</v>
+        <v>71982.91606999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>82503.79430000001</v>
+        <v>89578.3904</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>101878.24994</v>
+        <v>116454.96934</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>140649.18237</v>
@@ -1640,16 +1631,21 @@
         <v>185375.47133</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>248905.29941</v>
+        <v>248924.62217</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>314808.79619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>314940.04314</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>472616.032</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>21377.98201</v>
@@ -1658,37 +1654,42 @@
         <v>31201.10936</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>27867.60944</v>
+        <v>28762.56575</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>36648.35151000001</v>
+        <v>37712.87697</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>43327.89103</v>
+        <v>44421.56689</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>45961.09929999999</v>
+        <v>47095.82036</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>77719.20819999999</v>
+        <v>81137.56466</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>65720.13782999999</v>
+        <v>65722.89092999999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>73676.69512</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>91545.75416</v>
+        <v>91917.35378</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>144069.57619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>145244.59709</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>200261.816</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>33726.58892</v>
@@ -1697,37 +1698,42 @@
         <v>9229.591969999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>54277.75295000001</v>
+        <v>48109.10385</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>75654.2521</v>
+        <v>72594.97218</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>112850.06874</v>
+        <v>108313.70725</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>160468.09768</v>
+        <v>158294.23752</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>177169.23749</v>
+        <v>179135.02955</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>254025.38514</v>
+        <v>254021.1196</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>324294.00567</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>415607.18334</v>
+        <v>415893.22892</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>375871.1275400001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>376051.31759</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>447304.108</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>30984.81462</v>
@@ -1736,37 +1742,42 @@
         <v>24356.62365</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>26777.03504</v>
+        <v>26858.03358</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>26944.02212</v>
+        <v>27201.19591</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>33682.86243</v>
+        <v>33809.06982</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>46345.92199999999</v>
+        <v>47103.50623</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>54930.12211</v>
+        <v>55351.3815</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>53024.25532</v>
+        <v>53025.09223</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>97956.00156</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>233742.52872</v>
+        <v>233767.28831</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>146303.20549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>146684.92044</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>466906.596</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>16875.60194</v>
@@ -1853,19 +1874,19 @@
         <v>8609.847870000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>10705.33916</v>
+        <v>10705.95923</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>14405.5649</v>
+        <v>14414.9946</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>16273.51354</v>
+        <v>16273.89045</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>27516.71351</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>32103.06031</v>
+        <v>32250.16056</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>22981.46716</v>
@@ -1874,16 +1895,21 @@
         <v>24784.41998</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>45021.53619000001</v>
+        <v>45021.57811</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>43144.84289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>43145.22161</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>30279.038</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2077.92002</v>
@@ -1895,16 +1921,16 @@
         <v>2098.26624</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>3341.2929</v>
+        <v>3341.292899999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4826.983310000001</v>
+        <v>4927.909030000001</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>6070.84876</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6508.28847</v>
+        <v>6772.041190000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>7197.02678</v>
@@ -1913,16 +1939,21 @@
         <v>6249.94893</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7199.0859</v>
+        <v>7214.06316</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7218.57038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7593.507149999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>9678.013999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>206.78732</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>7811.78504</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>87.94799999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>13.66851</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>5.01404</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>9926.250820000001</v>
@@ -2009,37 +2050,42 @@
         <v>11579.58485</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>11375.87745</v>
+        <v>11456.25592</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4078.87769</v>
+        <v>4326.62178</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>9042.663879999998</v>
+        <v>9066.56864</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>10692.89608</v>
+        <v>10724.44656</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>19917.32357</v>
+        <v>19927.75361</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>37818.95428</v>
+        <v>37819.79119</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>51592.5963</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>150356.72684</v>
+        <v>150366.46725</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>85136.35412999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>309500.185</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1884.58601</v>
@@ -2126,19 +2182,19 @@
         <v>1984.44313</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2550.123979999999</v>
+        <v>2550.12398</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>2739.9419</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3526.04537</v>
+        <v>3527.04537</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>-5616.07737</v>
+        <v>-4890.04362</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>-12739.30229</v>
+        <v>-12739.32591</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>-19334.47524</v>
@@ -2150,13 +2206,18 @@
         <v>4772.348309999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2986.63901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2993.03847</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>117361.146</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>11149.65499</v>
@@ -2165,37 +2226,42 @@
         <v>12802.53116</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>14405.08142</v>
+        <v>14444.2395</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5476.969059999999</v>
+        <v>5518.016269999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>9821.748310000001</v>
+        <v>9903.485250000002</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6606.401519999999</v>
+        <v>6650.47208</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5958.07638</v>
+        <v>6033.35162</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12991.2913</v>
+        <v>12992.08615</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>30939.54972</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>63476.41968000001</v>
+        <v>63476.41968</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>33847.33498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>33857.42424</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>53050.846</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>43.3032</v>
@@ -2228,13 +2294,18 @@
         <v>32.92261999999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>170.59106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>180.68032</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>553.718</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1038.2513</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>407.034</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.28283</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0.21464</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>10029.90327</v>
@@ -2321,22 +2402,22 @@
         <v>11838.00775</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9314.52182</v>
+        <v>9353.679900000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3894.4353</v>
+        <v>3935.48251</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9084.683229999999</v>
+        <v>9166.420169999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5945.73451</v>
+        <v>5989.805069999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4990.13598</v>
+        <v>5065.411220000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11861.0739</v>
+        <v>11861.85075</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>30255.56215</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>33603.91464</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>50862.164</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>37.91439</v>
@@ -2453,10 +2549,10 @@
         <v>4.050890000000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>684.4297100000001</v>
+        <v>684.4477099999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>356.43117</v>
+        <v>356.4311700000001</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>52.87194</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>72.61463999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>1227.93</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1221.90002</v>
@@ -2477,37 +2578,42 @@
         <v>2081.08795</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1736.57924</v>
+        <v>1763.13683</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2848.43187</v>
+        <v>2956.34235</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4398.56103</v>
+        <v>4656.22978</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11307.02995</v>
+        <v>11853.91843</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>22242.62492</v>
+        <v>23007.51565</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>23767.06957</v>
+        <v>23767.17676</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>24184.66583</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>58047.16891999999</v>
+        <v>58051.19617</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>36738.05178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>36773.97331</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>429421.195</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1115.33819</v>
@@ -2516,37 +2622,42 @@
         <v>2081.08795</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1724.15939</v>
+        <v>1750.71698</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2813.67544</v>
+        <v>2921.58592</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4392.43216</v>
+        <v>4650.10091</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11275.68841</v>
+        <v>11822.57689</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>22229.16645</v>
+        <v>22994.05718</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>23743.19442</v>
+        <v>23743.30160999999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>24181.0387</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>57956.66909999999</v>
+        <v>57960.69634999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>33450.78435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>33467.66127</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>424169.971</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>106.56183</v>
@@ -2579,13 +2690,18 @@
         <v>90.49982000000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3287.26743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3306.31204</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5251.224</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>52339.84853</v>
@@ -2594,37 +2710,42 @@
         <v>18702.59651</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>64913.12733</v>
+        <v>58759.7611</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>94272.87329</v>
+        <v>91321.80946999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>132312.62183</v>
+        <v>127563.06204</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>188900.58821</v>
+        <v>186893.35324</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>203898.6583</v>
+        <v>205445.54378</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>270291.27959</v>
+        <v>270286.9489199999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>367125.79168</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>527826.12346</v>
+        <v>528132.9013799999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>451588.94627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>452104.84048</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>431738.663</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>149.03146</v>
@@ -2633,19 +2754,19 @@
         <v>1780.65175</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>804.8824599999999</v>
+        <v>805.34738</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4137.92362</v>
+        <v>4137.937900000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1287.75121</v>
+        <v>1287.88568</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1227.93239</v>
+        <v>1227.98651</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1590.53029</v>
+        <v>1656.69175</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>4362.084309999999</v>
@@ -2654,16 +2775,21 @@
         <v>1129.49085</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>122890.94903</v>
+        <v>122895.54786</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5594.92259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5641.522029999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>11347.09</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>15.00246</v>
@@ -2681,10 +2807,10 @@
         <v>19.16375</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>44.34103</v>
+        <v>44.37974000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>229.04725</v>
+        <v>244.82682</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>3283.21336</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2431.8207</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4657.196</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>134.029</v>
@@ -2711,19 +2842,19 @@
         <v>1566.7827</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>784.68188</v>
+        <v>785.1468</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3964.30065</v>
+        <v>3964.31493</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1268.58746</v>
+        <v>1268.72193</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1183.59136</v>
+        <v>1183.60677</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1361.48304</v>
+        <v>1411.86493</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>1078.87095</v>
@@ -2732,16 +2863,21 @@
         <v>1125.3289</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>121691.54078</v>
+        <v>121696.13961</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3163.10189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3209.70133</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6689.894</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>372.04365</v>
@@ -2750,37 +2886,42 @@
         <v>776.92709</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2509.74439</v>
+        <v>2509.74646</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4341.32449</v>
+        <v>4389.11202</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>389.4953</v>
+        <v>389.59937</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5081.87918</v>
+        <v>5083.18244</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2820.34799</v>
+        <v>2860.30274</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5340.51883</v>
+        <v>5340.67723</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>2966.22224</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>12505.83775</v>
+        <v>12526.63477</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1481.24354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1481.98399</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>10909.116</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,29 +2956,34 @@
       <c r="M52" s="48" t="n">
         <v>6.134390000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>35.59668</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>420.91251</v>
+        <v>420.9125099999999</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>71.81694999999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>57.92472</v>
+        <v>105.67212</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>11.97084</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>12.50737</v>
+        <v>13.67917</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>68.58594000000001</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>186.76753</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>7805.257</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>336.44697</v>
@@ -2867,76 +3018,86 @@
         <v>356.01458</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2413.160519999999</v>
+        <v>2413.16259</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4283.39977</v>
+        <v>4283.439899999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>377.52446</v>
+        <v>377.62853</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5069.37181</v>
+        <v>5069.503269999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2751.76205</v>
+        <v>2791.7168</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5130.655299999999</v>
+        <v>5130.813700000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>2830.2681</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>10900.21479</v>
+        <v>10921.01181</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1288.34162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1289.08207</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3103.859</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>52116.83633999999</v>
+        <v>52116.83634</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>19706.32117</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>63208.2654</v>
+        <v>57055.36201999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>94069.47242000001</v>
+        <v>91070.63535</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>133210.87774</v>
+        <v>128461.34835</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>185046.64142</v>
+        <v>183038.15731</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>202668.8406</v>
+        <v>204241.93279</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>269312.84507</v>
+        <v>269308.356</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>365289.0602899999</v>
+        <v>365289.06029</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>638211.2347399999</v>
+        <v>638501.81447</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>455702.62532</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>456264.37852</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>432176.637</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>11177.31557</v>
@@ -2948,34 +3109,39 @@
         <v>13318.60507</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>19678.54085</v>
+        <v>19689.09481</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>26498.3449</v>
+        <v>26508.92711</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>29372.41928</v>
+        <v>29377.39057</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>32848.109</v>
+        <v>33537.34543</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>34890.55412</v>
+        <v>34890.55412000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>70539.36673000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>109387.3018</v>
+        <v>109462.58847</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>105951.10467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>106000.93428</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>130378.206</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>40939.52077</v>
@@ -2984,34 +3150,37 @@
         <v>13492.94998</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>49889.66033000001</v>
+        <v>43736.75695</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>74390.93156999999</v>
+        <v>71381.54054</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>106712.53284</v>
+        <v>101952.42124</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>155674.22214</v>
+        <v>153660.76674</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>169820.7316</v>
+        <v>170704.58736</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>234422.29095</v>
+        <v>234417.80188</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>294749.69356</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>528823.93294</v>
+        <v>529039.2259999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>349751.52065</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>350263.44424</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>301798.431</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>176</v>
@@ -3038,34 +3210,37 @@
         <v>198</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>449</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>444</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>